--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-mexico\InputData\trans\SoCDTtiNTY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="19420" windowHeight="10050"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -80,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,6 +140,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -182,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +438,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -504,11 +512,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3">
-        <v>2.5500000000000002E-3</v>
+        <v>0.03</v>
       </c>
       <c r="C5" s="3">
         <v>2.8000000000000001E-2</v>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-mexico\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="19425" windowHeight="10050"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoCDTtiNTY" sheetId="2" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -76,10 +77,28 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>passenger</t>
-  </si>
-  <si>
-    <t>freight</t>
+    <t>Share that is New (dimensionless)</t>
+  </si>
+  <si>
+    <t>battery electric vehicle</t>
+  </si>
+  <si>
+    <t>natural gas vehicle</t>
+  </si>
+  <si>
+    <t>gasoline vehicle</t>
+  </si>
+  <si>
+    <t>diesel vehicle</t>
+  </si>
+  <si>
+    <t>plugin hybrid vehicle</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
   </si>
 </sst>
 </file>
@@ -123,13 +142,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,14 +462,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -453,47 +477,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -508,88 +532,401 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.5799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3">
-        <v>3.95E-2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.0300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
